--- a/Code/Results/Cases/Case_4_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.16009325905591</v>
+        <v>30.24164973136757</v>
       </c>
       <c r="C2">
-        <v>21.68700803963814</v>
+        <v>20.12138428807692</v>
       </c>
       <c r="D2">
-        <v>6.863476339846758</v>
+        <v>11.32638789073647</v>
       </c>
       <c r="E2">
-        <v>6.02207713558956</v>
+        <v>9.421041717961881</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.180516692963069</v>
+        <v>3.896815679667412</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>67.23788124657995</v>
+        <v>60.84471998896181</v>
       </c>
       <c r="J2">
-        <v>4.988654315230366</v>
+        <v>6.339821035386126</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.745136343486035</v>
+        <v>15.29519114330293</v>
       </c>
       <c r="M2">
-        <v>15.44902494835919</v>
+        <v>25.29146520893755</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.20270736055339</v>
+        <v>30.30763363416867</v>
       </c>
       <c r="C3">
-        <v>20.33997068395093</v>
+        <v>19.84288164637158</v>
       </c>
       <c r="D3">
-        <v>6.814181292137639</v>
+        <v>11.3448539259029</v>
       </c>
       <c r="E3">
-        <v>5.973406402420798</v>
+        <v>9.410500020831561</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.199360374072131</v>
+        <v>3.902670446694226</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>63.85911798798291</v>
+        <v>59.79935659241307</v>
       </c>
       <c r="J3">
-        <v>4.830100360084997</v>
+        <v>6.340085918273412</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.603845068874225</v>
+        <v>15.31002555099842</v>
       </c>
       <c r="M3">
-        <v>15.12996197245188</v>
+        <v>25.36201023936074</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.63836479146896</v>
+        <v>30.36026486125808</v>
       </c>
       <c r="C4">
-        <v>19.49927329173375</v>
+        <v>19.67649898592092</v>
       </c>
       <c r="D4">
-        <v>6.78806176354939</v>
+        <v>11.35774628189282</v>
       </c>
       <c r="E4">
-        <v>5.944188259072424</v>
+        <v>9.403876125696749</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.211026534401465</v>
+        <v>3.906441012234904</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>61.74795041464102</v>
+        <v>59.14873965907228</v>
       </c>
       <c r="J4">
-        <v>4.73186490799308</v>
+        <v>6.349443564193116</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.523483542094155</v>
+        <v>15.32149768157409</v>
       </c>
       <c r="M4">
-        <v>14.95258863517623</v>
+        <v>25.41183662861178</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.41423074040858</v>
+        <v>30.38474131699237</v>
       </c>
       <c r="C5">
-        <v>19.15326132456228</v>
+        <v>19.60993535024922</v>
       </c>
       <c r="D5">
-        <v>6.778409017435012</v>
+        <v>11.36339055464187</v>
       </c>
       <c r="E5">
-        <v>5.932410390394296</v>
+        <v>9.401138328781796</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.215814553474729</v>
+        <v>3.908021957760292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>60.87830586943129</v>
+        <v>58.88159970577013</v>
       </c>
       <c r="J5">
-        <v>4.691573709499726</v>
+        <v>6.35356870525961</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.492263987568403</v>
+        <v>15.32676618510613</v>
       </c>
       <c r="M5">
-        <v>14.88474659746006</v>
+        <v>25.4337729921229</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.37736539205457</v>
+        <v>30.38898798712928</v>
       </c>
       <c r="C6">
-        <v>19.09560204317935</v>
+        <v>19.59895951764748</v>
       </c>
       <c r="D6">
-        <v>6.776864622809738</v>
+        <v>11.36435136087871</v>
       </c>
       <c r="E6">
-        <v>5.930461430151071</v>
+        <v>9.400681380300806</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.216611915263</v>
+        <v>3.908287161344809</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>60.73333930248872</v>
+        <v>58.83712578707731</v>
       </c>
       <c r="J6">
-        <v>4.684866785933607</v>
+        <v>6.354272491515522</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.487170157064654</v>
+        <v>15.32767683591035</v>
       </c>
       <c r="M6">
-        <v>14.87374341952471</v>
+        <v>25.43751388981473</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.63531843769664</v>
+        <v>30.36058272072404</v>
       </c>
       <c r="C7">
-        <v>19.49462061502896</v>
+        <v>19.67559617039201</v>
       </c>
       <c r="D7">
-        <v>6.787927635107232</v>
+        <v>11.35782082163016</v>
       </c>
       <c r="E7">
-        <v>5.944028944532201</v>
+        <v>9.403839359343348</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.211090957712967</v>
+        <v>3.906462153308825</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>61.73625985275183</v>
+        <v>59.14514478782116</v>
       </c>
       <c r="J7">
-        <v>4.73132262051173</v>
+        <v>6.34949793577874</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.523056414275073</v>
+        <v>15.3215663325208</v>
       </c>
       <c r="M7">
-        <v>14.95165600059402</v>
+        <v>25.41212587094617</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82504547240272</v>
+        <v>30.26187572848103</v>
       </c>
       <c r="C8">
-        <v>21.22533706574072</v>
+        <v>20.02444499926342</v>
       </c>
       <c r="D8">
-        <v>6.845585732187455</v>
+        <v>11.33243226246247</v>
       </c>
       <c r="E8">
-        <v>6.005132191978307</v>
+        <v>9.417438045341438</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.187000374669236</v>
+        <v>3.898798069410044</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>66.0803317324376</v>
+        <v>60.48621192828474</v>
       </c>
       <c r="J8">
-        <v>4.934142583276953</v>
+        <v>6.331168552873715</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.695042244054749</v>
+        <v>15.29981495512768</v>
       </c>
       <c r="M8">
-        <v>15.33502646398069</v>
+        <v>25.31443434550252</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.35267111564905</v>
+        <v>30.16518868425662</v>
       </c>
       <c r="C9">
-        <v>24.51820734254379</v>
+        <v>20.74167903657744</v>
       </c>
       <c r="D9">
-        <v>6.994220065650104</v>
+        <v>11.29498898250236</v>
       </c>
       <c r="E9">
-        <v>6.132335100679831</v>
+        <v>9.442927082315194</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.13999783707822</v>
+        <v>3.885152769407968</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.32775889917636</v>
+        <v>63.03827148313088</v>
       </c>
       <c r="J9">
-        <v>5.327141032933764</v>
+        <v>6.42987062885391</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.08715680473895</v>
+        <v>15.27595283614129</v>
       </c>
       <c r="M9">
-        <v>16.24518138731427</v>
+        <v>25.17477273901355</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.47083554049587</v>
+        <v>30.1541061857906</v>
       </c>
       <c r="C10">
-        <v>26.89697103147555</v>
+        <v>21.28403330501336</v>
       </c>
       <c r="D10">
-        <v>7.129480769675638</v>
+        <v>11.2750215958141</v>
       </c>
       <c r="E10">
-        <v>6.233937739988864</v>
+        <v>9.460967680900653</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.104717190159977</v>
+        <v>3.87595682402209</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.27143503997638</v>
+        <v>64.85525080256589</v>
       </c>
       <c r="J10">
-        <v>5.617303323651123</v>
+        <v>6.503346515624683</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.41573406669537</v>
+        <v>15.26992581675879</v>
       </c>
       <c r="M10">
-        <v>17.02955497243642</v>
+        <v>25.10413519282277</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.58689231591323</v>
+        <v>30.16223589815105</v>
       </c>
       <c r="C11">
-        <v>27.97882397528311</v>
+        <v>21.5330794485449</v>
       </c>
       <c r="D11">
-        <v>7.197919091555777</v>
+        <v>11.26757900891726</v>
       </c>
       <c r="E11">
-        <v>6.283030687846666</v>
+        <v>9.469032843464781</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.088241122921601</v>
+        <v>3.8719502970093</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.9692145670216</v>
+        <v>65.66713815425838</v>
       </c>
       <c r="J11">
-        <v>5.751009385149099</v>
+        <v>6.535971570592015</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.57610678035979</v>
+        <v>15.26969051762521</v>
       </c>
       <c r="M11">
-        <v>17.41724141374696</v>
+        <v>25.07900739318517</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.01358374970885</v>
+        <v>30.16721775209826</v>
       </c>
       <c r="C12">
-        <v>28.38950447820742</v>
+        <v>21.62763603970193</v>
       </c>
       <c r="D12">
-        <v>7.224962344120299</v>
+        <v>11.2649968434332</v>
       </c>
       <c r="E12">
-        <v>6.302157593133853</v>
+        <v>9.472067103623631</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.081911752710129</v>
+        <v>3.870458301477048</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.99223752178285</v>
+        <v>65.97230368098647</v>
       </c>
       <c r="J12">
-        <v>5.802047081634091</v>
+        <v>6.548210004689064</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.63863764516532</v>
+        <v>15.26996228884329</v>
       </c>
       <c r="M12">
-        <v>17.56913511628585</v>
+        <v>25.07050434228304</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.9214819131343</v>
+        <v>30.16606004424374</v>
       </c>
       <c r="C13">
-        <v>28.30099201435046</v>
+        <v>21.60726190322717</v>
       </c>
       <c r="D13">
-        <v>7.219085476500823</v>
+        <v>11.26554245099994</v>
       </c>
       <c r="E13">
-        <v>6.298012080361927</v>
+        <v>9.471414495534782</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.083279450137225</v>
+        <v>3.87077851274639</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.77180290311937</v>
+        <v>65.90668477321479</v>
       </c>
       <c r="J13">
-        <v>5.791034075580532</v>
+        <v>6.545579412158616</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.6250859754967</v>
+        <v>15.26988770203392</v>
       </c>
       <c r="M13">
-        <v>17.53618359953042</v>
+        <v>25.07229052907309</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.6219060141186</v>
+        <v>30.16260756720717</v>
       </c>
       <c r="C14">
-        <v>28.01258354433667</v>
+        <v>21.54085419012142</v>
       </c>
       <c r="D14">
-        <v>7.200120482197432</v>
+        <v>11.26736183783077</v>
       </c>
       <c r="E14">
-        <v>6.284592690813438</v>
+        <v>9.469282868528014</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.087722402433457</v>
+        <v>3.871827046117284</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.05333476710487</v>
+        <v>65.69229091266192</v>
       </c>
       <c r="J14">
-        <v>5.755199061960674</v>
+        <v>6.536980763677549</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.58121356515487</v>
+        <v>15.26970564175243</v>
       </c>
       <c r="M14">
-        <v>17.42963151470983</v>
+        <v>25.07828752702282</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.43898239781041</v>
+        <v>30.16074093315579</v>
       </c>
       <c r="C15">
-        <v>27.83609281460409</v>
+        <v>21.50020733958214</v>
       </c>
       <c r="D15">
-        <v>7.188655191458218</v>
+        <v>11.26850702959866</v>
       </c>
       <c r="E15">
-        <v>6.276447022902086</v>
+        <v>9.467974617000602</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.090431104048514</v>
+        <v>3.872472576690162</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.61351954954783</v>
+        <v>65.56066685732458</v>
       </c>
       <c r="J15">
-        <v>5.733307520257002</v>
+        <v>6.531698711850977</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.55458303704615</v>
+        <v>15.26964113257929</v>
       </c>
       <c r="M15">
-        <v>17.36504986748118</v>
+        <v>25.08209283341008</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.39838738984714</v>
+        <v>30.1538407706003</v>
       </c>
       <c r="C16">
-        <v>26.82634598232924</v>
+        <v>21.26779695475187</v>
       </c>
       <c r="D16">
-        <v>7.125157895074008</v>
+        <v>11.2755410231908</v>
       </c>
       <c r="E16">
-        <v>6.230797029319717</v>
+        <v>9.460437798513198</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.10578304505451</v>
+        <v>3.876222197291185</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.09518802652418</v>
+        <v>64.80188223811491</v>
       </c>
       <c r="J16">
-        <v>5.608612405965109</v>
+        <v>6.50119821752108</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.405491278063</v>
+        <v>15.26999167100938</v>
       </c>
       <c r="M16">
-        <v>17.00489116576222</v>
+        <v>25.10591875016478</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.76574406594695</v>
+        <v>30.15298847626847</v>
       </c>
       <c r="C17">
-        <v>26.20747564800609</v>
+        <v>21.12575470060897</v>
       </c>
       <c r="D17">
-        <v>7.088059322532689</v>
+        <v>11.28027655504318</v>
       </c>
       <c r="E17">
-        <v>6.203606159181172</v>
+        <v>9.455778305499235</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.11507326791434</v>
+        <v>3.878567577432532</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.55014998364483</v>
+        <v>64.33251271795396</v>
       </c>
       <c r="J17">
-        <v>5.532654336678143</v>
+        <v>6.482281661590948</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.31696811302912</v>
+        <v>15.2708490273762</v>
       </c>
       <c r="M17">
-        <v>16.79225842175122</v>
+        <v>25.12233306170828</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.45677041112211</v>
+        <v>30.15373756740346</v>
       </c>
       <c r="C18">
-        <v>25.85141399926909</v>
+        <v>21.04427982254739</v>
       </c>
       <c r="D18">
-        <v>7.067361804503943</v>
+        <v>11.28315472246214</v>
       </c>
       <c r="E18">
-        <v>6.188228162692828</v>
+        <v>9.453084929107089</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.120378677572363</v>
+        <v>3.879933228733357</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.66074325055605</v>
+        <v>64.06117298975448</v>
       </c>
       <c r="J18">
-        <v>5.489114337960292</v>
+        <v>6.471326164724125</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.26706098379995</v>
+        <v>15.27157805235259</v>
       </c>
       <c r="M18">
-        <v>16.67281599979729</v>
+        <v>25.13243326292158</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.35520897391467</v>
+        <v>30.15420373168216</v>
       </c>
       <c r="C19">
-        <v>25.73081320294373</v>
+        <v>21.01673496734498</v>
       </c>
       <c r="D19">
-        <v>7.060460419349813</v>
+        <v>11.28415573325882</v>
       </c>
       <c r="E19">
-        <v>6.183063097143396</v>
+        <v>9.452170687989582</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.122169225724896</v>
+        <v>3.880398481486627</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.35941916458899</v>
+        <v>63.96907189875364</v>
       </c>
       <c r="J19">
-        <v>5.474393871772013</v>
+        <v>6.467603938033135</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.25033044015017</v>
+        <v>15.27186538744533</v>
       </c>
       <c r="M19">
-        <v>16.63284887355777</v>
+        <v>25.1359660679323</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.83290447500333</v>
+        <v>30.15295086684522</v>
       </c>
       <c r="C20">
-        <v>26.27335967161958</v>
+        <v>21.14085278088829</v>
       </c>
       <c r="D20">
-        <v>7.091941358935595</v>
+        <v>11.27975646634695</v>
       </c>
       <c r="E20">
-        <v>6.20647282137837</v>
+        <v>9.456275695376497</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.114088435766676</v>
+        <v>3.87831618607818</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.71468426956893</v>
+        <v>64.38262103381722</v>
       </c>
       <c r="J20">
-        <v>5.540723755601914</v>
+        <v>6.48430315091451</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.32628562365593</v>
+        <v>15.27073334233155</v>
       </c>
       <c r="M20">
-        <v>16.81459359889643</v>
+        <v>25.12051747696837</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.70977587541987</v>
+        <v>30.16356992420807</v>
       </c>
       <c r="C21">
-        <v>28.09725877726602</v>
+        <v>21.56035368843195</v>
       </c>
       <c r="D21">
-        <v>7.205659139529623</v>
+        <v>11.26682102804247</v>
       </c>
       <c r="E21">
-        <v>6.288518579602627</v>
+        <v>9.469909513376727</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.086420116046308</v>
+        <v>3.871518384639719</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.26430539870275</v>
+        <v>65.75532673524724</v>
       </c>
       <c r="J21">
-        <v>5.765712140658382</v>
+        <v>6.539509550275263</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.594048888659</v>
+        <v>15.2697493201887</v>
       </c>
       <c r="M21">
-        <v>17.46078435128024</v>
+        <v>25.07649855216199</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.96106265016263</v>
+        <v>30.18160687952318</v>
       </c>
       <c r="C22">
-        <v>29.33108581985682</v>
+        <v>21.83592984121298</v>
       </c>
       <c r="D22">
-        <v>7.286638454055501</v>
+        <v>11.25974371346479</v>
       </c>
       <c r="E22">
-        <v>6.345351415398419</v>
+        <v>9.478704594876646</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.067791960089425</v>
+        <v>3.867222344368484</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.24774059971361</v>
+        <v>66.63911549753031</v>
       </c>
       <c r="J22">
-        <v>5.915233829057157</v>
+        <v>6.574913743305403</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.77970614698549</v>
+        <v>15.27120978652146</v>
       </c>
       <c r="M22">
-        <v>17.91319739652625</v>
+        <v>25.05363216778881</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.2904220165509</v>
+        <v>30.17096232094169</v>
       </c>
       <c r="C23">
-        <v>28.66418892151394</v>
+        <v>21.68874889432006</v>
       </c>
       <c r="D23">
-        <v>7.242755608330999</v>
+        <v>11.26339495996743</v>
       </c>
       <c r="E23">
-        <v>6.314674603695621</v>
+        <v>9.474020880360499</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.077795677148135</v>
+        <v>3.869501872956272</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.65354629056027</v>
+        <v>66.16869642604065</v>
       </c>
       <c r="J23">
-        <v>5.835138402364776</v>
+        <v>6.55608007008675</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.67954689172859</v>
+        <v>15.27023770894065</v>
       </c>
       <c r="M23">
-        <v>17.6687168466256</v>
+        <v>25.06529476310197</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.80253651468611</v>
+        <v>30.15296401131782</v>
       </c>
       <c r="C24">
-        <v>26.24357440355254</v>
+        <v>21.13402634943456</v>
       </c>
       <c r="D24">
-        <v>7.090184334667532</v>
+        <v>11.27999111365997</v>
       </c>
       <c r="E24">
-        <v>6.205176019838744</v>
+        <v>9.456050870840228</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.114533787387531</v>
+        <v>3.878429786327994</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.64030204489585</v>
+        <v>64.35997170141654</v>
       </c>
       <c r="J24">
-        <v>5.537075179981807</v>
+        <v>6.483389485061257</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.32207012260261</v>
+        <v>15.27078490811681</v>
       </c>
       <c r="M24">
-        <v>16.80448718077445</v>
+        <v>25.12133623687799</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.64639779802465</v>
+        <v>30.18087420649012</v>
       </c>
       <c r="C25">
-        <v>23.63666333954257</v>
+        <v>20.54459273843417</v>
       </c>
       <c r="D25">
-        <v>6.949794862320246</v>
+        <v>11.3037950495293</v>
       </c>
       <c r="E25">
-        <v>6.096802818996777</v>
+        <v>9.436154454835362</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.152769483454435</v>
+        <v>3.888697512751889</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>72.12181349368004</v>
+        <v>62.35731884439468</v>
       </c>
       <c r="J25">
-        <v>5.220955025075821</v>
+        <v>6.402110161014559</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.974562055222872</v>
+        <v>15.28039094065232</v>
       </c>
       <c r="M25">
-        <v>15.98025316958647</v>
+        <v>25.20696283408759</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.24164973136757</v>
+        <v>21.16009325905592</v>
       </c>
       <c r="C2">
-        <v>20.12138428807692</v>
+        <v>21.6870080396382</v>
       </c>
       <c r="D2">
-        <v>11.32638789073647</v>
+        <v>6.863476339846648</v>
       </c>
       <c r="E2">
-        <v>9.421041717961881</v>
+        <v>6.022077135589559</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.896815679667412</v>
+        <v>2.1805166929629</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>60.84471998896181</v>
+        <v>67.23788124658012</v>
       </c>
       <c r="J2">
-        <v>6.339821035386126</v>
+        <v>4.988654315230391</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.29519114330293</v>
+        <v>9.745136343486017</v>
       </c>
       <c r="M2">
-        <v>25.29146520893755</v>
+        <v>15.44902494835919</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.30763363416867</v>
+        <v>20.20270736055342</v>
       </c>
       <c r="C3">
-        <v>19.84288164637158</v>
+        <v>20.33997068395085</v>
       </c>
       <c r="D3">
-        <v>11.3448539259029</v>
+        <v>6.814181292137651</v>
       </c>
       <c r="E3">
-        <v>9.410500020831561</v>
+        <v>5.973406402420862</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.902670446694226</v>
+        <v>2.199360374072012</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>59.79935659241307</v>
+        <v>63.85911798798247</v>
       </c>
       <c r="J3">
-        <v>6.340085918273412</v>
+        <v>4.830100360085033</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.31002555099842</v>
+        <v>9.60384506887427</v>
       </c>
       <c r="M3">
-        <v>25.36201023936074</v>
+        <v>15.12996197245187</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.36026486125808</v>
+        <v>19.63836479146882</v>
       </c>
       <c r="C4">
-        <v>19.67649898592092</v>
+        <v>19.49927329173374</v>
       </c>
       <c r="D4">
-        <v>11.35774628189282</v>
+        <v>6.788061763549297</v>
       </c>
       <c r="E4">
-        <v>9.403876125696749</v>
+        <v>5.944188259072295</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.906441012234904</v>
+        <v>2.211026534401594</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>59.14873965907228</v>
+        <v>61.74795041464125</v>
       </c>
       <c r="J4">
-        <v>6.349443564193116</v>
+        <v>4.73186490799297</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.32149768157409</v>
+        <v>9.523483542094098</v>
       </c>
       <c r="M4">
-        <v>25.41183662861178</v>
+        <v>14.95258863517611</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.38474131699237</v>
+        <v>19.41423074040854</v>
       </c>
       <c r="C5">
-        <v>19.60993535024922</v>
+        <v>19.15326132456225</v>
       </c>
       <c r="D5">
-        <v>11.36339055464187</v>
+        <v>6.778409017434904</v>
       </c>
       <c r="E5">
-        <v>9.401138328781796</v>
+        <v>5.932410390394359</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.908021957760292</v>
+        <v>2.215814553474474</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>58.88159970577013</v>
+        <v>60.87830586943114</v>
       </c>
       <c r="J5">
-        <v>6.35356870525961</v>
+        <v>4.69157370949987</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.32676618510613</v>
+        <v>9.492263987568455</v>
       </c>
       <c r="M5">
-        <v>25.4337729921229</v>
+        <v>14.88474659746006</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.38898798712928</v>
+        <v>19.37736539205453</v>
       </c>
       <c r="C6">
-        <v>19.59895951764748</v>
+        <v>19.09560204317943</v>
       </c>
       <c r="D6">
-        <v>11.36435136087871</v>
+        <v>6.776864622809482</v>
       </c>
       <c r="E6">
-        <v>9.400681380300806</v>
+        <v>5.930461430150737</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.908287161344809</v>
+        <v>2.216611915262619</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>58.83712578707731</v>
+        <v>60.7333393024894</v>
       </c>
       <c r="J6">
-        <v>6.354272491515522</v>
+        <v>4.684866785933545</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.32767683591035</v>
+        <v>9.487170157064552</v>
       </c>
       <c r="M6">
-        <v>25.43751388981473</v>
+        <v>14.87374341952466</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.36058272072404</v>
+        <v>19.6353184376966</v>
       </c>
       <c r="C7">
-        <v>19.67559617039201</v>
+        <v>19.49462061502908</v>
       </c>
       <c r="D7">
-        <v>11.35782082163016</v>
+        <v>6.787927635107245</v>
       </c>
       <c r="E7">
-        <v>9.403839359343348</v>
+        <v>5.944028944532136</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.906462153308825</v>
+        <v>2.211090957713217</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>59.14514478782116</v>
+        <v>61.7362598527524</v>
       </c>
       <c r="J7">
-        <v>6.34949793577874</v>
+        <v>4.731322620511824</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.3215663325208</v>
+        <v>9.523056414275105</v>
       </c>
       <c r="M7">
-        <v>25.41212587094617</v>
+        <v>14.951656000594</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.26187572848103</v>
+        <v>20.82504547240277</v>
       </c>
       <c r="C8">
-        <v>20.02444499926342</v>
+        <v>21.22533706574065</v>
       </c>
       <c r="D8">
-        <v>11.33243226246247</v>
+        <v>6.845585732187331</v>
       </c>
       <c r="E8">
-        <v>9.417438045341438</v>
+        <v>6.005132191978241</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.898798069410044</v>
+        <v>2.187000374668985</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>60.48621192828474</v>
+        <v>66.08033173243727</v>
       </c>
       <c r="J8">
-        <v>6.331168552873715</v>
+        <v>4.93414258327702</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.29981495512768</v>
+        <v>9.695042244054699</v>
       </c>
       <c r="M8">
-        <v>25.31443434550252</v>
+        <v>15.33502646398068</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.16518868425662</v>
+        <v>23.35267111564912</v>
       </c>
       <c r="C9">
-        <v>20.74167903657744</v>
+        <v>24.51820734254377</v>
       </c>
       <c r="D9">
-        <v>11.29498898250236</v>
+        <v>6.994220065650272</v>
       </c>
       <c r="E9">
-        <v>9.442927082315194</v>
+        <v>6.132335100679896</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.885152769407968</v>
+        <v>2.139997837078094</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>63.03827148313088</v>
+        <v>74.327758899176</v>
       </c>
       <c r="J9">
-        <v>6.42987062885391</v>
+        <v>5.327141032933775</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.27595283614129</v>
+        <v>10.08715680473888</v>
       </c>
       <c r="M9">
-        <v>25.17477273901355</v>
+        <v>16.24518138731428</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.1541061857906</v>
+        <v>25.47083554049592</v>
       </c>
       <c r="C10">
-        <v>21.28403330501336</v>
+        <v>26.89697103147547</v>
       </c>
       <c r="D10">
-        <v>11.2750215958141</v>
+        <v>7.129480769675665</v>
       </c>
       <c r="E10">
-        <v>9.460967680900653</v>
+        <v>6.233937739988868</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.87595682402209</v>
+        <v>2.104717190160076</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>64.85525080256589</v>
+        <v>80.27143503997681</v>
       </c>
       <c r="J10">
-        <v>6.503346515624683</v>
+        <v>5.617303323651023</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.26992581675879</v>
+        <v>10.41573406669536</v>
       </c>
       <c r="M10">
-        <v>25.10413519282277</v>
+        <v>17.02955497243642</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.16223589815105</v>
+        <v>26.58689231591317</v>
       </c>
       <c r="C11">
-        <v>21.5330794485449</v>
+        <v>27.97882397528339</v>
       </c>
       <c r="D11">
-        <v>11.26757900891726</v>
+        <v>7.197919091555792</v>
       </c>
       <c r="E11">
-        <v>9.469032843464781</v>
+        <v>6.283030687846666</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.8719502970093</v>
+        <v>2.088241122921685</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>65.66713815425838</v>
+        <v>82.96921456702191</v>
       </c>
       <c r="J11">
-        <v>6.535971570592015</v>
+        <v>5.75100938514917</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.26969051762521</v>
+        <v>10.57610678035979</v>
       </c>
       <c r="M11">
-        <v>25.07900739318517</v>
+        <v>17.41724141374692</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.16721775209826</v>
+        <v>27.01358374970906</v>
       </c>
       <c r="C12">
-        <v>21.62763603970193</v>
+        <v>28.38950447820761</v>
       </c>
       <c r="D12">
-        <v>11.2649968434332</v>
+        <v>7.224962344120284</v>
       </c>
       <c r="E12">
-        <v>9.472067103623631</v>
+        <v>6.30215759313386</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.870458301477048</v>
+        <v>2.081911752709882</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>65.97230368098647</v>
+        <v>83.99223752178399</v>
       </c>
       <c r="J12">
-        <v>6.548210004689064</v>
+        <v>5.802047081634111</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.26996228884329</v>
+        <v>10.63863764516534</v>
       </c>
       <c r="M12">
-        <v>25.07050434228304</v>
+        <v>17.56913511628582</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.16606004424374</v>
+        <v>26.92148191313435</v>
       </c>
       <c r="C13">
-        <v>21.60726190322717</v>
+        <v>28.30099201435047</v>
       </c>
       <c r="D13">
-        <v>11.26554245099994</v>
+        <v>7.219085476500889</v>
       </c>
       <c r="E13">
-        <v>9.471414495534782</v>
+        <v>6.29801208036192</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.87077851274639</v>
+        <v>2.083279450137336</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>65.90668477321479</v>
+        <v>83.77180290311907</v>
       </c>
       <c r="J13">
-        <v>6.545579412158616</v>
+        <v>5.791034075580479</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.26988770203392</v>
+        <v>10.62508597549669</v>
       </c>
       <c r="M13">
-        <v>25.07229052907309</v>
+        <v>17.53618359953043</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.16260756720717</v>
+        <v>26.62190601411864</v>
       </c>
       <c r="C14">
-        <v>21.54085419012142</v>
+        <v>28.01258354433666</v>
       </c>
       <c r="D14">
-        <v>11.26736183783077</v>
+        <v>7.200120482197582</v>
       </c>
       <c r="E14">
-        <v>9.469282868528014</v>
+        <v>6.284592690813506</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.871827046117284</v>
+        <v>2.08772240243384</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>65.69229091266192</v>
+        <v>83.05333476710453</v>
       </c>
       <c r="J14">
-        <v>6.536980763677549</v>
+        <v>5.755199061960547</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.26970564175243</v>
+        <v>10.58121356515486</v>
       </c>
       <c r="M14">
-        <v>25.07828752702282</v>
+        <v>17.42963151470984</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.16074093315579</v>
+        <v>26.4389823978103</v>
       </c>
       <c r="C15">
-        <v>21.50020733958214</v>
+        <v>27.83609281460389</v>
       </c>
       <c r="D15">
-        <v>11.26850702959866</v>
+        <v>7.188655191458063</v>
       </c>
       <c r="E15">
-        <v>9.467974617000602</v>
+        <v>6.276447022901814</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.872472576690162</v>
+        <v>2.090431104048598</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>65.56066685732458</v>
+        <v>82.61351954954681</v>
       </c>
       <c r="J15">
-        <v>6.531698711850977</v>
+        <v>5.733307520256873</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.26964113257929</v>
+        <v>10.55458303704606</v>
       </c>
       <c r="M15">
-        <v>25.08209283341008</v>
+        <v>17.36504986748124</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.1538407706003</v>
+        <v>25.39838738984712</v>
       </c>
       <c r="C16">
-        <v>21.26779695475187</v>
+        <v>26.82634598232929</v>
       </c>
       <c r="D16">
-        <v>11.2755410231908</v>
+        <v>7.125157895073713</v>
       </c>
       <c r="E16">
-        <v>9.460437798513198</v>
+        <v>6.230797029319383</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.876222197291185</v>
+        <v>2.105783045054348</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>64.80188223811491</v>
+        <v>80.09518802652443</v>
       </c>
       <c r="J16">
-        <v>6.50119821752108</v>
+        <v>5.608612405965069</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.26999167100938</v>
+        <v>10.40549127806297</v>
       </c>
       <c r="M16">
-        <v>25.10591875016478</v>
+        <v>17.00489116576223</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.15298847626847</v>
+        <v>24.76574406594701</v>
       </c>
       <c r="C17">
-        <v>21.12575470060897</v>
+        <v>26.20747564800611</v>
       </c>
       <c r="D17">
-        <v>11.28027655504318</v>
+        <v>7.08805932253264</v>
       </c>
       <c r="E17">
-        <v>9.455778305499235</v>
+        <v>6.203606159181037</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.878567577432532</v>
+        <v>2.115073267914215</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>64.33251271795396</v>
+        <v>78.55014998364554</v>
       </c>
       <c r="J17">
-        <v>6.482281661590948</v>
+        <v>5.532654336678145</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.2708490273762</v>
+        <v>10.31696811302901</v>
       </c>
       <c r="M17">
-        <v>25.12233306170828</v>
+        <v>16.79225842175115</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.15373756740346</v>
+        <v>24.45677041112207</v>
       </c>
       <c r="C18">
-        <v>21.04427982254739</v>
+        <v>25.85141399926896</v>
       </c>
       <c r="D18">
-        <v>11.28315472246214</v>
+        <v>7.067361804503973</v>
       </c>
       <c r="E18">
-        <v>9.453084929107089</v>
+        <v>6.18822816269283</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.879933228733357</v>
+        <v>2.120378677572525</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>64.06117298975448</v>
+        <v>77.66074325055565</v>
       </c>
       <c r="J18">
-        <v>6.471326164724125</v>
+        <v>5.489114337960251</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.27157805235259</v>
+        <v>10.26706098379997</v>
       </c>
       <c r="M18">
-        <v>25.13243326292158</v>
+        <v>16.67281599979732</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.15420373168216</v>
+        <v>24.35520897391473</v>
       </c>
       <c r="C19">
-        <v>21.01673496734498</v>
+        <v>25.73081320294375</v>
       </c>
       <c r="D19">
-        <v>11.28415573325882</v>
+        <v>7.060460419349782</v>
       </c>
       <c r="E19">
-        <v>9.452170687989582</v>
+        <v>6.183063097143598</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.880398481486627</v>
+        <v>2.122169225724908</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>63.96907189875364</v>
+        <v>77.35941916458918</v>
       </c>
       <c r="J19">
-        <v>6.467603938033135</v>
+        <v>5.474393871772169</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.27186538744533</v>
+        <v>10.25033044015016</v>
       </c>
       <c r="M19">
-        <v>25.1359660679323</v>
+        <v>16.63284887355778</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.15295086684522</v>
+        <v>24.83290447500332</v>
       </c>
       <c r="C20">
-        <v>21.14085278088829</v>
+        <v>26.27335967161956</v>
       </c>
       <c r="D20">
-        <v>11.27975646634695</v>
+        <v>7.091941358935641</v>
       </c>
       <c r="E20">
-        <v>9.456275695376497</v>
+        <v>6.206472821378504</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.87831618607818</v>
+        <v>2.114088435767301</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>64.38262103381722</v>
+        <v>78.71468426956913</v>
       </c>
       <c r="J20">
-        <v>6.48430315091451</v>
+        <v>5.540723755601935</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.27073334233155</v>
+        <v>10.32628562365593</v>
       </c>
       <c r="M20">
-        <v>25.12051747696837</v>
+        <v>16.81459359889644</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.16356992420807</v>
+        <v>26.70977587541985</v>
       </c>
       <c r="C21">
-        <v>21.56035368843195</v>
+        <v>28.09725877726614</v>
       </c>
       <c r="D21">
-        <v>11.26682102804247</v>
+        <v>7.205659139529525</v>
       </c>
       <c r="E21">
-        <v>9.469909513376727</v>
+        <v>6.288518579602638</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.871518384639719</v>
+        <v>2.086420116046237</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>65.75532673524724</v>
+        <v>83.26430539870357</v>
       </c>
       <c r="J21">
-        <v>6.539509550275263</v>
+        <v>5.76571214065842</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.2697493201887</v>
+        <v>10.59404888865904</v>
       </c>
       <c r="M21">
-        <v>25.07649855216199</v>
+        <v>17.46078435128022</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18160687952318</v>
+        <v>27.96106265016259</v>
       </c>
       <c r="C22">
-        <v>21.83592984121298</v>
+        <v>29.33108581985694</v>
       </c>
       <c r="D22">
-        <v>11.25974371346479</v>
+        <v>7.286638454055493</v>
       </c>
       <c r="E22">
-        <v>9.478704594876646</v>
+        <v>6.345351415398415</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.867222344368484</v>
+        <v>2.067791960089534</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>66.63911549753031</v>
+        <v>86.24774059971359</v>
       </c>
       <c r="J22">
-        <v>6.574913743305403</v>
+        <v>5.915233829057159</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.27120978652146</v>
+        <v>10.77970614698549</v>
       </c>
       <c r="M22">
-        <v>25.05363216778881</v>
+        <v>17.91319739652626</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.17096232094169</v>
+        <v>27.2904220165508</v>
       </c>
       <c r="C23">
-        <v>21.68874889432006</v>
+        <v>28.66418892151382</v>
       </c>
       <c r="D23">
-        <v>11.26339495996743</v>
+        <v>7.242755608330871</v>
       </c>
       <c r="E23">
-        <v>9.474020880360499</v>
+        <v>6.314674603695557</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.869501872956272</v>
+        <v>2.077795677148285</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>66.16869642604065</v>
+        <v>84.65354629056057</v>
       </c>
       <c r="J23">
-        <v>6.55608007008675</v>
+        <v>5.835138402364793</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.27023770894065</v>
+        <v>10.6795468917286</v>
       </c>
       <c r="M23">
-        <v>25.06529476310197</v>
+        <v>17.66871684662559</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.15296401131782</v>
+        <v>24.80253651468604</v>
       </c>
       <c r="C24">
-        <v>21.13402634943456</v>
+        <v>26.24357440355247</v>
       </c>
       <c r="D24">
-        <v>11.27999111365997</v>
+        <v>7.090184334667669</v>
       </c>
       <c r="E24">
-        <v>9.456050870840228</v>
+        <v>6.205176019838807</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.878429786327994</v>
+        <v>2.114533787387406</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>64.35997170141654</v>
+        <v>78.64030204489569</v>
       </c>
       <c r="J24">
-        <v>6.483389485061257</v>
+        <v>5.53707517998185</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.27078490811681</v>
+        <v>10.32207012260259</v>
       </c>
       <c r="M24">
-        <v>25.12133623687799</v>
+        <v>16.80448718077443</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.18087420649012</v>
+        <v>22.64639779802462</v>
       </c>
       <c r="C25">
-        <v>20.54459273843417</v>
+        <v>23.6366633395426</v>
       </c>
       <c r="D25">
-        <v>11.3037950495293</v>
+        <v>6.949794862320346</v>
       </c>
       <c r="E25">
-        <v>9.436154454835362</v>
+        <v>6.09680281899685</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.888697512751889</v>
+        <v>2.152769483454446</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>62.35731884439468</v>
+        <v>72.12181349368073</v>
       </c>
       <c r="J25">
-        <v>6.402110161014559</v>
+        <v>5.220955025075797</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>15.28039094065232</v>
+        <v>9.974562055222858</v>
       </c>
       <c r="M25">
-        <v>25.20696283408759</v>
+        <v>15.98025316958644</v>
       </c>
       <c r="N25">
         <v>0</v>
